--- a/public/files/excel/FormatoMovilidades.xlsx
+++ b/public/files/excel/FormatoMovilidades.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\movilidad\public\files\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\movilidad\public\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD2097-21BD-4395-AF95-CC0DAAAD6898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -74,18 +73,18 @@
     <t>Estudiante/Profesor</t>
   </si>
   <si>
-    <t>CONSEJO NACIONAL DE ACREDITACIÓN
-PROCESO DE ACREDITACIÓN INSTITUCIONAL
-CUADRO DE MOVILIDADES</t>
-  </si>
-  <si>
     <t>MOVILIDAD DE PROFESORES Y ESTUDIANTES DE LA INSTITUCIÓN</t>
+  </si>
+  <si>
+    <t>UNIDADES TECNOLOGICAS DE SANTANDER
+OFICINA DE RELACIONES INTERINSTITUCIONALES
+REPORTE DE MOVILIDADES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,6 +221,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,9 +237,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -310,27 +309,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2543831</xdr:colOff>
+      <xdr:colOff>2505075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>937101</xdr:rowOff>
+      <xdr:rowOff>896475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0DC64B-670D-40C1-AE0F-E2AD5F19B670}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Archivo:Logo de las Unidades Tecnológicas de Santander.svg - Wikipedia, la  enciclopedia libre"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -339,23 +332,31 @@
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10448925" y="342900"/>
-          <a:ext cx="1229381" cy="594201"/>
+          <a:off x="11410950" y="123825"/>
+          <a:ext cx="1762125" cy="772650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -649,14 +650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,15 +679,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -698,81 +699,81 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
@@ -785,18 +786,13 @@
       <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B3:B4"/>
@@ -808,6 +804,11 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
